--- a/Incom - Copy.xlsx
+++ b/Incom - Copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="9" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="june-2019" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,15 @@
     <sheet name="Aug-2020" sheetId="18" r:id="rId15"/>
     <sheet name="sep-2020" sheetId="20" r:id="rId16"/>
     <sheet name="oct-2020 " sheetId="21" r:id="rId17"/>
+    <sheet name="Nov-2020" sheetId="23" r:id="rId18"/>
+    <sheet name="Dec-2020" sheetId="24" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'April-2020'!$A$1:$H$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Aug-2019 '!$A$2:$H$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">'Aug-2020'!$A$1:$H$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'DEC-2019 '!$A$1:$H$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">'Dec-2020'!$A$1:$H$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Feb-2020 '!$A$1:$H$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Jan-2020'!$A$1:$H$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'july-2019'!$A$1:$F$18</definedName>
@@ -44,6 +47,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'March-2020'!$A$1:$H$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'May-2020'!$A$1:$H$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Nov-2019'!$A$1:$H$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">'Nov-2020'!$A$1:$H$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'oct-2019'!$A$1:$H$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="16">'oct-2020 '!$A$1:$H$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'sep-2020'!$A$1:$H$18</definedName>
@@ -65,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="364">
   <si>
     <t>S.No</t>
   </si>
@@ -1061,6 +1065,102 @@
   </si>
   <si>
     <t>Naseem Khatoon</t>
+  </si>
+  <si>
+    <t>Not Receive Rent</t>
+  </si>
+  <si>
+    <t>01-11-2020</t>
+  </si>
+  <si>
+    <t>03-11-2020</t>
+  </si>
+  <si>
+    <t>23-11-2020</t>
+  </si>
+  <si>
+    <t>30-11-2020</t>
+  </si>
+  <si>
+    <t>25-11-2020</t>
+  </si>
+  <si>
+    <t>13-11-2020</t>
+  </si>
+  <si>
+    <t>06-11-2020</t>
+  </si>
+  <si>
+    <t>20-11-2020</t>
+  </si>
+  <si>
+    <t>27-11-2020</t>
+  </si>
+  <si>
+    <t>6-11-2020</t>
+  </si>
+  <si>
+    <t>Jinnah Bakers</t>
+  </si>
+  <si>
+    <t>Mother Shahzad</t>
+  </si>
+  <si>
+    <t>Nizam Sheikh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not 6000 </t>
+  </si>
+  <si>
+    <t>not Receive Rent</t>
+  </si>
+  <si>
+    <t>Shahzad Shaba</t>
+  </si>
+  <si>
+    <t>056 , 057</t>
+  </si>
+  <si>
+    <t>Income From Nov- 2020</t>
+  </si>
+  <si>
+    <t>Income From Dec- 2020</t>
+  </si>
+  <si>
+    <t>01-12-2020</t>
+  </si>
+  <si>
+    <t>03-12-2020</t>
+  </si>
+  <si>
+    <t>06-12-2020</t>
+  </si>
+  <si>
+    <t>13-12-2020</t>
+  </si>
+  <si>
+    <t>20-12-2020</t>
+  </si>
+  <si>
+    <t>27-12-2020</t>
+  </si>
+  <si>
+    <t>30-12-2020</t>
+  </si>
+  <si>
+    <t>25-12-2020</t>
+  </si>
+  <si>
+    <t>6-12-2020</t>
+  </si>
+  <si>
+    <t>23-12-2020</t>
+  </si>
+  <si>
+    <t>Jameel Sahab</t>
+  </si>
+  <si>
+    <t>haneef Akhtar</t>
   </si>
 </sst>
 </file>
@@ -4404,7 +4504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -4710,7 +4810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -5031,6 +5131,720 @@
       <c r="E20" s="73">
         <f>SUM(E5:E19)</f>
         <v>220701</v>
+      </c>
+      <c r="F20" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="38" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="35.5546875" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="402" customHeight="1" x14ac:dyDescent="1.35">
+      <c r="A1" s="109" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50">
+        <v>1</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="75">
+        <v>75487</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50">
+        <v>2</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="E6" s="75">
+        <v>45000</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50">
+        <v>3</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="53">
+        <v>58</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>346</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50">
+        <v>4</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="53">
+        <v>59</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50">
+        <v>5</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50">
+        <v>6</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" s="53">
+        <v>532</v>
+      </c>
+      <c r="E10" s="75">
+        <v>20000</v>
+      </c>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50">
+        <v>7</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="53">
+        <v>534</v>
+      </c>
+      <c r="E11" s="75">
+        <v>7900</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50">
+        <v>8</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="75">
+        <v>10250</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50">
+        <v>9</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="75">
+        <v>10350</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50">
+        <v>10</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="53"/>
+      <c r="E14" s="75">
+        <v>7790</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50">
+        <v>11</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="53"/>
+      <c r="E15" s="75">
+        <v>3450</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50">
+        <v>12</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="75">
+        <v>100</v>
+      </c>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="50">
+        <v>13</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="D17" s="53"/>
+      <c r="E17" s="75">
+        <v>100</v>
+      </c>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="50">
+        <v>14</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="53"/>
+      <c r="E18" s="75">
+        <v>6500</v>
+      </c>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="50">
+        <v>15</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="D19" s="53">
+        <v>533</v>
+      </c>
+      <c r="E19" s="75">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="1:6" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="50">
+        <v>16</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>348</v>
+      </c>
+      <c r="D20" s="53">
+        <v>540</v>
+      </c>
+      <c r="E20" s="75">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:6" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A21" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="73">
+        <f>SUM(E5:E20)</f>
+        <v>190927</v>
+      </c>
+      <c r="F21" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A21:C21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="38" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="35.5546875" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="402" customHeight="1" x14ac:dyDescent="1.35">
+      <c r="A1" s="109" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50">
+        <v>1</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="75">
+        <v>75487</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50">
+        <v>2</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="E6" s="75">
+        <v>50000</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50">
+        <v>3</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="53">
+        <v>58</v>
+      </c>
+      <c r="E7" s="75">
+        <v>6000</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50">
+        <v>4</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="53">
+        <v>59</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50">
+        <v>5</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50">
+        <v>6</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" s="53">
+        <v>532</v>
+      </c>
+      <c r="E10" s="75">
+        <v>20000</v>
+      </c>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50">
+        <v>7</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="53">
+        <v>534</v>
+      </c>
+      <c r="E11" s="75">
+        <v>10550</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50">
+        <v>8</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="75">
+        <v>8660</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50">
+        <v>9</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="75">
+        <v>8080</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50">
+        <v>10</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="53"/>
+      <c r="E14" s="75">
+        <v>13000</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50">
+        <v>12</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>362</v>
+      </c>
+      <c r="D15" s="53"/>
+      <c r="E15" s="75">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50">
+        <v>13</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>363</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="75">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="50">
+        <v>14</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="53"/>
+      <c r="E17" s="75">
+        <v>6500</v>
+      </c>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="50">
+        <v>15</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="D18" s="53">
+        <v>533</v>
+      </c>
+      <c r="E18" s="75">
+        <v>2000</v>
+      </c>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="50">
+        <v>16</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>348</v>
+      </c>
+      <c r="D19" s="53">
+        <v>540</v>
+      </c>
+      <c r="E19" s="75">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="1:6" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A20" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="73">
+        <f>SUM(E5:E19)</f>
+        <v>204277</v>
       </c>
       <c r="F20" s="78"/>
     </row>

--- a/Incom - Copy.xlsx
+++ b/Incom - Copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="13" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="13" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="june-2019" sheetId="1" r:id="rId1"/>
@@ -31,15 +31,19 @@
     <sheet name="oct-2020 " sheetId="21" r:id="rId17"/>
     <sheet name="Nov-2020" sheetId="23" r:id="rId18"/>
     <sheet name="Dec-2020" sheetId="24" r:id="rId19"/>
+    <sheet name="Jan-2021" sheetId="25" r:id="rId20"/>
+    <sheet name="Feb-2021" sheetId="26" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'April-2020'!$A$1:$H$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Aug-2019 '!$A$2:$H$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">'Aug-2020'!$A$1:$H$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'DEC-2019 '!$A$1:$H$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="18">'Dec-2020'!$A$1:$H$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">'Dec-2020'!$A$1:$H$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Feb-2020 '!$A$1:$H$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">'Feb-2021'!$A$1:$H$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Jan-2020'!$A$1:$H$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">'Jan-2021'!$A$1:$H$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'july-2019'!$A$1:$F$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'July-2020'!$A$1:$H$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'june-2019'!$A$1:$F$6</definedName>
@@ -47,10 +51,10 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'March-2020'!$A$1:$H$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'May-2020'!$A$1:$H$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Nov-2019'!$A$1:$H$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="17">'Nov-2020'!$A$1:$H$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">'Nov-2020'!$A$1:$H$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'oct-2019'!$A$1:$H$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">'oct-2020 '!$A$1:$H$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">'sep-2020'!$A$1:$H$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'oct-2020 '!$A$1:$H$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">'sep-2020'!$A$1:$H$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'september-2019'!$A$1:$H$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -69,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="452">
   <si>
     <t>S.No</t>
   </si>
@@ -926,9 +930,6 @@
     <t>03-07-2020</t>
   </si>
   <si>
-    <t>30-07-2020</t>
-  </si>
-  <si>
     <t>Rent Nawab din</t>
   </si>
   <si>
@@ -950,18 +951,9 @@
     <t>01-08-2020</t>
   </si>
   <si>
-    <t>03-08-2020</t>
-  </si>
-  <si>
     <t>30-08-2020</t>
   </si>
   <si>
-    <t>Not recive 3000</t>
-  </si>
-  <si>
-    <t>Eid-ul-Azha</t>
-  </si>
-  <si>
     <t>07-08-2020</t>
   </si>
   <si>
@@ -989,9 +981,6 @@
     <t>18-03-2020</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>Income From July- 2020</t>
   </si>
   <si>
@@ -1004,18 +993,12 @@
     <t>01-09-2020</t>
   </si>
   <si>
-    <t>03-09-2020</t>
-  </si>
-  <si>
     <t>30-09-2020</t>
   </si>
   <si>
     <t>04-08-2020</t>
   </si>
   <si>
-    <t>parchi</t>
-  </si>
-  <si>
     <t>04-09-2020</t>
   </si>
   <si>
@@ -1028,9 +1011,6 @@
     <t>25-09-2020</t>
   </si>
   <si>
-    <t>Qazi Abdul Rehman</t>
-  </si>
-  <si>
     <t>01-10-2020</t>
   </si>
   <si>
@@ -1043,9 +1023,6 @@
     <t>30-10-2020</t>
   </si>
   <si>
-    <t>Not receive 12000</t>
-  </si>
-  <si>
     <t>02-10-2020</t>
   </si>
   <si>
@@ -1064,27 +1041,15 @@
     <t>Abdi Shahi</t>
   </si>
   <si>
-    <t>Naseem Khatoon</t>
-  </si>
-  <si>
-    <t>Not Receive Rent</t>
-  </si>
-  <si>
     <t>01-11-2020</t>
   </si>
   <si>
     <t>03-11-2020</t>
   </si>
   <si>
-    <t>23-11-2020</t>
-  </si>
-  <si>
     <t>30-11-2020</t>
   </si>
   <si>
-    <t>25-11-2020</t>
-  </si>
-  <si>
     <t>13-11-2020</t>
   </si>
   <si>
@@ -1097,30 +1062,6 @@
     <t>27-11-2020</t>
   </si>
   <si>
-    <t>6-11-2020</t>
-  </si>
-  <si>
-    <t>Jinnah Bakers</t>
-  </si>
-  <si>
-    <t>Mother Shahzad</t>
-  </si>
-  <si>
-    <t>Nizam Sheikh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not 6000 </t>
-  </si>
-  <si>
-    <t>not Receive Rent</t>
-  </si>
-  <si>
-    <t>Shahzad Shaba</t>
-  </si>
-  <si>
-    <t>056 , 057</t>
-  </si>
-  <si>
     <t>Income From Nov- 2020</t>
   </si>
   <si>
@@ -1130,37 +1071,364 @@
     <t>01-12-2020</t>
   </si>
   <si>
-    <t>03-12-2020</t>
-  </si>
-  <si>
-    <t>06-12-2020</t>
-  </si>
-  <si>
     <t>13-12-2020</t>
   </si>
   <si>
-    <t>20-12-2020</t>
-  </si>
-  <si>
-    <t>27-12-2020</t>
-  </si>
-  <si>
     <t>30-12-2020</t>
   </si>
   <si>
     <t>25-12-2020</t>
   </si>
   <si>
-    <t>6-12-2020</t>
-  </si>
-  <si>
-    <t>23-12-2020</t>
-  </si>
-  <si>
-    <t>Jameel Sahab</t>
-  </si>
-  <si>
-    <t>haneef Akhtar</t>
+    <t>042</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>Not Receive</t>
+  </si>
+  <si>
+    <t>15-07-2020</t>
+  </si>
+  <si>
+    <t>Amount Received from Juma Register Page No.45</t>
+  </si>
+  <si>
+    <t>Chanda Box 1,2,3 Page No.44</t>
+  </si>
+  <si>
+    <t>Amount Received from Juma Register Page No.44</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>Eid-ul-Azha Page No.46</t>
+  </si>
+  <si>
+    <t>Chanda Box 1,2,3 Page No.46</t>
+  </si>
+  <si>
+    <t>Amount Received from Juma Register Page No.46</t>
+  </si>
+  <si>
+    <t>Amount Received from Juma Register Page No.47</t>
+  </si>
+  <si>
+    <t>Abdul Rehman Page No.48</t>
+  </si>
+  <si>
+    <t>Abdullah Page No.48</t>
+  </si>
+  <si>
+    <t>Chanda Box 1,2,3 Page No.48</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>29-09-2020</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>Amount Received from Juma Register Page No.48</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>Mrs. Ahmed Ali</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>Amount Received from Juma Register Page No.49</t>
+  </si>
+  <si>
+    <t>Abdullah Page No.49</t>
+  </si>
+  <si>
+    <t>Qazi Abdul Rehman Page No.49</t>
+  </si>
+  <si>
+    <t>Chanda Box 1,2,3 Page No.49</t>
+  </si>
+  <si>
+    <t>06-09-2020</t>
+  </si>
+  <si>
+    <t>Fayyaz Saheb Page No.48</t>
+  </si>
+  <si>
+    <t>Income From Oct- 2020</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>11-10-2020</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>Amount Received from Juma Register Page No.50</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>Chanda Box 1,2,3 Page No.50</t>
+  </si>
+  <si>
+    <t>Naseema Begum Page No.51</t>
+  </si>
+  <si>
+    <t>Chanda Box 1,2,3 Page No.52</t>
+  </si>
+  <si>
+    <t>Tauheed Bahi Page No.52</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>Remaining May-20</t>
+  </si>
+  <si>
+    <t>11-11-2020</t>
+  </si>
+  <si>
+    <t>Rent Sep &amp; Oct</t>
+  </si>
+  <si>
+    <t>Mother Shahzad Page No.52</t>
+  </si>
+  <si>
+    <t>Jinnah Bakers Page No.53</t>
+  </si>
+  <si>
+    <t>14-11-2020</t>
+  </si>
+  <si>
+    <t>Chanda Box 1,2,3 Page No.53</t>
+  </si>
+  <si>
+    <t>Nizam Saheb Page No.54</t>
+  </si>
+  <si>
+    <t>Shabaz Saheb</t>
+  </si>
+  <si>
+    <t>Rent Rec.</t>
+  </si>
+  <si>
+    <t>02-12-2020</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>28-12-2020</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>11-12-2020</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>15-12-2020</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>04-12-2020</t>
+  </si>
+  <si>
+    <t>Hanif Akhter Page No.55</t>
+  </si>
+  <si>
+    <t>18-12-2020</t>
+  </si>
+  <si>
+    <t>Tauheed Bahi Page No.55</t>
+  </si>
+  <si>
+    <t>Chanda Box 1,2,3 Page No55</t>
+  </si>
+  <si>
+    <t>19-12-2020</t>
+  </si>
+  <si>
+    <t>Jameel Saheb Page No.56</t>
+  </si>
+  <si>
+    <t>Amount Received from Juma Register Page No.56</t>
+  </si>
+  <si>
+    <t>haneef Akhtar Page No.56</t>
+  </si>
+  <si>
+    <t>Income From Jan- 2021</t>
+  </si>
+  <si>
+    <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>15-01-2021</t>
+  </si>
+  <si>
+    <t>30-01-2021</t>
+  </si>
+  <si>
+    <t>10-01-2021</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>23-01-2021</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>Remaing.May-20</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>20-01-2021</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>Amount Received from Juma Register Page No.01</t>
+  </si>
+  <si>
+    <t>08-01-2021</t>
+  </si>
+  <si>
+    <t>Chanda Box 1,2,3 Page No01</t>
+  </si>
+  <si>
+    <t>Jinnah Bakers Page No.02</t>
+  </si>
+  <si>
+    <t>Amount Received from Juma Register Page No.02</t>
+  </si>
+  <si>
+    <t>22-01-2021</t>
+  </si>
+  <si>
+    <t>Ramzan Saheb Page NO.3</t>
+  </si>
+  <si>
+    <t>29-01-2021</t>
+  </si>
+  <si>
+    <t>Amount Received from Juma Register Page No.03</t>
+  </si>
+  <si>
+    <t>Chanda Box 1,2,3 Page No03</t>
+  </si>
+  <si>
+    <t>haneef Akhtar Page No.03</t>
+  </si>
+  <si>
+    <t>Income From Feb- 2021</t>
+  </si>
+  <si>
+    <t>01-02-2021</t>
+  </si>
+  <si>
+    <t>10-02-2021</t>
+  </si>
+  <si>
+    <t>15-02-2021</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>27-02-2021</t>
+  </si>
+  <si>
+    <t>05-02-2021</t>
+  </si>
+  <si>
+    <t>12-02-2021</t>
+  </si>
+  <si>
+    <t>18-02-2021</t>
+  </si>
+  <si>
+    <t>19-02-2021</t>
+  </si>
+  <si>
+    <t>24-02-2021</t>
+  </si>
+  <si>
+    <t>26-02-2021</t>
+  </si>
+  <si>
+    <t>28-02-2021</t>
+  </si>
+  <si>
+    <t>Amount Received from Juma Register Page No.04</t>
+  </si>
+  <si>
+    <t>Shazad Bahi Page No.04</t>
+  </si>
+  <si>
+    <t>Chanda Box 1,2,3 Page No05</t>
+  </si>
+  <si>
+    <t>Amount Received from Juma Register Page No.05</t>
+  </si>
+  <si>
+    <t>Chanda Box 1,2,3 Page No06</t>
+  </si>
+  <si>
+    <t>Chanda Box 1,2,3 Page No07</t>
   </si>
 </sst>
 </file>
@@ -2555,7 +2823,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="402" customHeight="1" x14ac:dyDescent="1.35">
       <c r="A1" s="109" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -2840,13 +3108,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E17" s="75">
         <v>11800</v>
@@ -2920,7 +3188,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="402" customHeight="1" x14ac:dyDescent="1.35">
       <c r="A1" s="109" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -3876,8 +4144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3892,7 +4160,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="402" customHeight="1" x14ac:dyDescent="1.35">
       <c r="A1" s="109" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -3957,7 +4225,9 @@
       <c r="C6" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="53"/>
+      <c r="D6" s="51" t="s">
+        <v>335</v>
+      </c>
       <c r="E6" s="75">
         <v>25000</v>
       </c>
@@ -3975,7 +4245,9 @@
       <c r="C7" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="53"/>
+      <c r="D7" s="51" t="s">
+        <v>339</v>
+      </c>
       <c r="E7" s="75">
         <v>6000</v>
       </c>
@@ -3988,18 +4260,18 @@
         <v>4</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C8" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>132</v>
-      </c>
+      <c r="D8" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="E8" s="75">
+        <v>12000</v>
+      </c>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="50">
@@ -4011,17 +4283,23 @@
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="75"/>
-      <c r="F9" s="30"/>
+      <c r="F9" s="30" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50">
         <v>6</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="47" t="s">
+        <v>283</v>
+      </c>
       <c r="C10" s="65" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" s="53"/>
+        <v>285</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>336</v>
+      </c>
       <c r="E10" s="75">
         <v>20000</v>
       </c>
@@ -4035,7 +4313,7 @@
         <v>284</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>168</v>
+        <v>344</v>
       </c>
       <c r="D11" s="53">
         <v>97</v>
@@ -4052,10 +4330,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>169</v>
+        <v>344</v>
       </c>
       <c r="D12" s="53">
         <v>98</v>
@@ -4072,10 +4350,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>170</v>
+        <v>342</v>
       </c>
       <c r="D13" s="53">
         <v>100</v>
@@ -4092,12 +4370,14 @@
         <v>10</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="53"/>
+        <v>342</v>
+      </c>
+      <c r="D14" s="53">
+        <v>501</v>
+      </c>
       <c r="E14" s="75">
         <v>9000</v>
       </c>
@@ -4110,26 +4390,30 @@
         <v>11</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="53"/>
+        <v>342</v>
+      </c>
+      <c r="D15" s="53">
+        <v>502</v>
+      </c>
       <c r="E15" s="75">
         <v>10800</v>
       </c>
-      <c r="F15" s="30"/>
+      <c r="F15" s="30" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="50">
         <v>12</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>285</v>
+        <v>341</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="D16" s="53">
         <v>99</v>
@@ -4150,7 +4434,7 @@
       <c r="D17" s="77"/>
       <c r="E17" s="73">
         <f>SUM(E5:E16)</f>
-        <v>374760</v>
+        <v>386760</v>
       </c>
       <c r="F17" s="78"/>
     </row>
@@ -4168,8 +4452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4184,7 +4468,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="402" customHeight="1" x14ac:dyDescent="1.35">
       <c r="A1" s="109" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -4224,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C5" s="65" t="s">
         <v>10</v>
@@ -4233,7 +4517,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="75">
-        <v>163790</v>
+        <v>175790</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>115</v>
@@ -4244,12 +4528,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C6" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="53"/>
+      <c r="D6" s="51" t="s">
+        <v>338</v>
+      </c>
       <c r="E6" s="75">
         <v>25000</v>
       </c>
@@ -4262,12 +4548,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C7" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="53"/>
+      <c r="D7" s="51" t="s">
+        <v>345</v>
+      </c>
       <c r="E7" s="75">
         <v>6000</v>
       </c>
@@ -4280,17 +4568,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C8" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="53"/>
+      <c r="D8" s="51" t="s">
+        <v>346</v>
+      </c>
       <c r="E8" s="75">
         <v>12000</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4302,18 +4592,20 @@
         <v>15</v>
       </c>
       <c r="D9" s="53"/>
-      <c r="E9" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="F9" s="30"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="30" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50"/>
       <c r="B10" s="47"/>
       <c r="C10" s="65" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" s="53"/>
+        <v>285</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>347</v>
+      </c>
       <c r="E10" s="75">
         <v>20000</v>
       </c>
@@ -4322,13 +4614,13 @@
     <row r="11" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50"/>
       <c r="B11" s="47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>296</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>306</v>
+        <v>348</v>
+      </c>
+      <c r="D11" s="53">
+        <v>503</v>
       </c>
       <c r="E11" s="75">
         <v>10000</v>
@@ -4340,12 +4632,14 @@
         <v>6</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" s="53"/>
+        <v>350</v>
+      </c>
+      <c r="D12" s="53">
+        <v>505</v>
+      </c>
       <c r="E12" s="75">
         <v>7660</v>
       </c>
@@ -4358,12 +4652,14 @@
         <v>7</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="53"/>
+        <v>351</v>
+      </c>
+      <c r="D13" s="53">
+        <v>506</v>
+      </c>
       <c r="E13" s="75">
         <v>9800</v>
       </c>
@@ -4376,10 +4672,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>170</v>
+        <v>351</v>
       </c>
       <c r="D14" s="53">
         <v>507</v>
@@ -4396,12 +4692,14 @@
         <v>9</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="53"/>
+        <v>351</v>
+      </c>
+      <c r="D15" s="53">
+        <v>508</v>
+      </c>
       <c r="E15" s="75">
         <v>7020</v>
       </c>
@@ -4414,12 +4712,14 @@
         <v>10</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="53"/>
+        <v>349</v>
+      </c>
+      <c r="D16" s="53">
+        <v>504</v>
+      </c>
       <c r="E16" s="75">
         <v>4500</v>
       </c>
@@ -4430,12 +4730,14 @@
         <v>11</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>314</v>
-      </c>
-      <c r="D17" s="53"/>
+        <v>353</v>
+      </c>
+      <c r="D17" s="53">
+        <v>510</v>
+      </c>
       <c r="E17" s="75">
         <v>500</v>
       </c>
@@ -4446,12 +4748,14 @@
         <v>12</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>314</v>
-      </c>
-      <c r="D18" s="53"/>
+        <v>352</v>
+      </c>
+      <c r="D18" s="53">
+        <v>511</v>
+      </c>
       <c r="E18" s="75">
         <v>500</v>
       </c>
@@ -4462,13 +4766,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>237</v>
+        <v>354</v>
       </c>
       <c r="D19" s="53">
-        <v>99</v>
+        <v>509</v>
       </c>
       <c r="E19" s="75">
         <v>3700</v>
@@ -4486,7 +4790,7 @@
       <c r="D20" s="77"/>
       <c r="E20" s="73">
         <f>SUM(E5:E19)</f>
-        <v>278100</v>
+        <v>290100</v>
       </c>
       <c r="F20" s="78"/>
     </row>
@@ -4502,10 +4806,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4520,7 +4824,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="402" customHeight="1" x14ac:dyDescent="1.35">
       <c r="A1" s="109" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -4560,7 +4864,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C5" s="65" t="s">
         <v>10</v>
@@ -4569,7 +4873,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="75">
-        <v>88381</v>
+        <v>112381</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>115</v>
@@ -4580,12 +4884,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="C6" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="53"/>
+      <c r="D6" s="51" t="s">
+        <v>355</v>
+      </c>
       <c r="E6" s="75">
         <v>25000</v>
       </c>
@@ -4598,12 +4904,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C7" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="53"/>
+      <c r="D7" s="51" t="s">
+        <v>357</v>
+      </c>
       <c r="E7" s="75">
         <v>6000</v>
       </c>
@@ -4616,17 +4924,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C8" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="53"/>
+      <c r="D8" s="51" t="s">
+        <v>358</v>
+      </c>
       <c r="E8" s="75">
         <v>12000</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4638,36 +4948,44 @@
         <v>15</v>
       </c>
       <c r="D9" s="53"/>
-      <c r="E9" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="F9" s="30"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="30" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50">
         <v>6</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="47" t="s">
+        <v>305</v>
+      </c>
       <c r="C10" s="65" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" s="53"/>
+        <v>285</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>359</v>
+      </c>
       <c r="E10" s="75">
         <v>20000</v>
       </c>
-      <c r="F10" s="30"/>
+      <c r="F10" s="30" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50">
         <v>7</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="53"/>
+        <v>360</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>361</v>
+      </c>
       <c r="E11" s="75">
         <v>9500</v>
       </c>
@@ -4675,73 +4993,81 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="50">
         <v>8</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="53"/>
+        <v>369</v>
+      </c>
+      <c r="D12" s="51">
+        <v>513</v>
+      </c>
       <c r="E12" s="75">
-        <v>8300</v>
+        <v>500</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50">
         <v>9</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="53"/>
+        <v>362</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>363</v>
+      </c>
       <c r="E13" s="75">
-        <v>6350</v>
+        <v>500</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50">
         <v>10</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="53"/>
+        <v>360</v>
+      </c>
+      <c r="D14" s="53">
+        <v>515</v>
+      </c>
       <c r="E14" s="75">
-        <v>300</v>
+        <v>8300</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="50">
         <v>11</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="53"/>
+        <v>364</v>
+      </c>
+      <c r="D15" s="53">
+        <v>516</v>
+      </c>
       <c r="E15" s="75">
-        <v>66800</v>
+        <v>6350</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>116</v>
@@ -4752,54 +5078,98 @@
         <v>12</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>319</v>
-      </c>
-      <c r="D16" s="53"/>
+        <v>365</v>
+      </c>
+      <c r="D16" s="53">
+        <v>518</v>
+      </c>
       <c r="E16" s="75">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50">
         <v>13</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="53"/>
+        <v>364</v>
+      </c>
+      <c r="D17" s="53">
+        <v>519</v>
+      </c>
       <c r="E17" s="75">
+        <v>6680</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="50">
+        <v>14</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="D18" s="53">
+        <v>517</v>
+      </c>
+      <c r="E18" s="75">
+        <v>500</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="50">
+        <v>15</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="D19" s="53">
+        <v>520</v>
+      </c>
+      <c r="E19" s="75">
         <v>19100</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A18" s="106" t="s">
+      <c r="F19" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A20" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="107"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="73">
-        <f>SUM(E5:E17)</f>
-        <v>262231</v>
-      </c>
-      <c r="F18" s="78"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="73">
+        <f>SUM(E5:E19)</f>
+        <v>227111</v>
+      </c>
+      <c r="F20" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="38" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -4808,10 +5178,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4826,7 +5196,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="402" customHeight="1" x14ac:dyDescent="1.35">
       <c r="A1" s="109" t="s">
-        <v>309</v>
+        <v>370</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -4866,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C5" s="65" t="s">
         <v>10</v>
@@ -4875,7 +5245,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="75">
-        <v>121691</v>
+        <v>155361</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>115</v>
@@ -4886,17 +5256,15 @@
         <v>2</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C6" s="65" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="53"/>
-      <c r="E6" s="75">
-        <v>27000</v>
-      </c>
+      <c r="E6" s="75"/>
       <c r="F6" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
@@ -4904,12 +5272,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="C7" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="53"/>
+      <c r="D7" s="51" t="s">
+        <v>371</v>
+      </c>
       <c r="E7" s="75">
         <v>6000</v>
       </c>
@@ -4922,15 +5292,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C8" s="65" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="53"/>
-      <c r="E8" s="75" t="s">
-        <v>324</v>
-      </c>
+      <c r="E8" s="75"/>
       <c r="F8" s="30" t="s">
         <v>132</v>
       </c>
@@ -4944,38 +5312,44 @@
         <v>15</v>
       </c>
       <c r="D9" s="53"/>
-      <c r="E9" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="F9" s="30"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="30" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50">
         <v>6</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" s="53"/>
+        <v>285</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>373</v>
+      </c>
       <c r="E10" s="75">
         <v>20000</v>
       </c>
-      <c r="F10" s="30"/>
-    </row>
-    <row r="11" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50">
         <v>7</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="53"/>
+        <v>374</v>
+      </c>
+      <c r="D11" s="51">
+        <v>521</v>
+      </c>
       <c r="E11" s="75">
         <v>10330</v>
       </c>
@@ -4983,17 +5357,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="50">
         <v>8</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="53"/>
+        <v>374</v>
+      </c>
+      <c r="D12" s="53">
+        <v>522</v>
+      </c>
       <c r="E12" s="75">
         <v>9290</v>
       </c>
@@ -5001,17 +5377,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50">
         <v>9</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="53"/>
+        <v>168</v>
+      </c>
+      <c r="D13" s="53">
+        <v>524</v>
+      </c>
       <c r="E13" s="75">
         <v>1050</v>
       </c>
@@ -5019,17 +5397,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50">
         <v>10</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="53"/>
+        <v>168</v>
+      </c>
+      <c r="D14" s="53">
+        <v>525</v>
+      </c>
       <c r="E14" s="75">
         <v>540</v>
       </c>
@@ -5042,12 +5422,14 @@
         <v>11</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="53"/>
+        <v>169</v>
+      </c>
+      <c r="D15" s="53">
+        <v>530</v>
+      </c>
       <c r="E15" s="75">
         <v>9000</v>
       </c>
@@ -5060,30 +5442,36 @@
         <v>12</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="53"/>
+        <v>376</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>375</v>
+      </c>
       <c r="E16" s="75">
-        <v>5500</v>
-      </c>
-      <c r="F16" s="30"/>
+        <v>2600</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50">
         <v>13</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>330</v>
-      </c>
-      <c r="D17" s="53"/>
+        <v>377</v>
+      </c>
+      <c r="D17" s="53">
+        <v>526</v>
+      </c>
       <c r="E17" s="75">
-        <v>1700</v>
+        <v>6000</v>
       </c>
       <c r="F17" s="30"/>
     </row>
@@ -5092,52 +5480,74 @@
         <v>14</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>331</v>
-      </c>
-      <c r="D18" s="53"/>
+        <v>321</v>
+      </c>
+      <c r="D18" s="53">
+        <v>527</v>
+      </c>
       <c r="E18" s="75">
-        <v>6000</v>
+        <v>1700</v>
       </c>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" spans="1:6" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50">
         <v>15</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="D19" s="53"/>
+        <v>378</v>
+      </c>
+      <c r="D19" s="53">
+        <v>528</v>
+      </c>
       <c r="E19" s="75">
-        <v>2600</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A20" s="106" t="s">
+        <v>5500</v>
+      </c>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="1:6" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="50">
+        <v>16</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="D20" s="53">
+        <v>529</v>
+      </c>
+      <c r="E20" s="75">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A21" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="73">
-        <f>SUM(E5:E19)</f>
-        <v>220701</v>
-      </c>
-      <c r="F20" s="78"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="73">
+        <f>SUM(E5:E20)</f>
+        <v>228371</v>
+      </c>
+      <c r="F21" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="38" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -5146,10 +5556,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5164,7 +5574,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="402" customHeight="1" x14ac:dyDescent="1.35">
       <c r="A1" s="109" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -5204,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C5" s="65" t="s">
         <v>10</v>
@@ -5213,7 +5623,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="75">
-        <v>75487</v>
+        <v>109157</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>115</v>
@@ -5224,57 +5634,53 @@
         <v>2</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C6" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="53" t="s">
-        <v>349</v>
+      <c r="D6" s="53">
+        <v>56</v>
       </c>
       <c r="E6" s="75">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50">
         <v>3</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="53">
-        <v>58</v>
-      </c>
-      <c r="E7" s="75" t="s">
-        <v>346</v>
+        <v>11</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>380</v>
+      </c>
+      <c r="E7" s="75">
+        <v>2000</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50">
         <v>4</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="53">
-        <v>59</v>
-      </c>
-      <c r="E8" s="75" t="s">
-        <v>324</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="30" t="s">
         <v>132</v>
       </c>
@@ -5283,227 +5689,273 @@
       <c r="A9" s="50">
         <v>5</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="47" t="s">
+        <v>382</v>
+      </c>
       <c r="C9" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="F9" s="30"/>
+        <v>14</v>
+      </c>
+      <c r="D9" s="53">
+        <v>59</v>
+      </c>
+      <c r="E9" s="75">
+        <v>24000</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50">
         <v>6</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>339</v>
-      </c>
+      <c r="B10" s="47"/>
       <c r="C10" s="65" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" s="53">
-        <v>532</v>
-      </c>
-      <c r="E10" s="75">
-        <v>20000</v>
-      </c>
-      <c r="F10" s="30"/>
-    </row>
-    <row r="11" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50">
         <v>7</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>168</v>
+        <v>285</v>
       </c>
       <c r="D11" s="53">
-        <v>534</v>
+        <v>58</v>
       </c>
       <c r="E11" s="75">
-        <v>7900</v>
+        <v>20000</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="50">
         <v>8</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="53"/>
+        <v>384</v>
+      </c>
+      <c r="D12" s="53">
+        <v>531</v>
+      </c>
       <c r="E12" s="75">
-        <v>10250</v>
+        <v>100</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50">
         <v>9</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="53"/>
+        <v>169</v>
+      </c>
+      <c r="D13" s="53">
+        <v>532</v>
+      </c>
       <c r="E13" s="75">
-        <v>10350</v>
+        <v>7900</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50">
         <v>10</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="53"/>
+        <v>385</v>
+      </c>
+      <c r="D14" s="53">
+        <v>533</v>
+      </c>
       <c r="E14" s="75">
-        <v>7790</v>
+        <v>2000</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="50">
         <v>11</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="53"/>
+        <v>170</v>
+      </c>
+      <c r="D15" s="53">
+        <v>534</v>
+      </c>
       <c r="E15" s="75">
-        <v>3450</v>
+        <v>10250</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50">
         <v>12</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>344</v>
-      </c>
-      <c r="D16" s="53"/>
+        <v>387</v>
+      </c>
+      <c r="D16" s="53">
+        <v>535</v>
+      </c>
       <c r="E16" s="75">
-        <v>100</v>
-      </c>
-      <c r="F16" s="30"/>
-    </row>
-    <row r="17" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6500</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50">
         <v>13</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>345</v>
-      </c>
-      <c r="D17" s="53"/>
+        <v>170</v>
+      </c>
+      <c r="D17" s="53">
+        <v>536</v>
+      </c>
       <c r="E17" s="75">
-        <v>100</v>
-      </c>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10350</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50">
         <v>14</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="D18" s="53"/>
+        <v>387</v>
+      </c>
+      <c r="D18" s="53">
+        <v>537</v>
+      </c>
       <c r="E18" s="75">
-        <v>6500</v>
-      </c>
-      <c r="F18" s="30"/>
+        <v>3450</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50">
         <v>15</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>343</v>
+        <v>171</v>
       </c>
       <c r="D19" s="53">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="E19" s="75">
-        <v>2000</v>
-      </c>
-      <c r="F19" s="30"/>
-    </row>
-    <row r="20" spans="1:6" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7790</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="50">
         <v>16</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="D20" s="53">
+        <v>539</v>
+      </c>
+      <c r="E20" s="75">
+        <v>100</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="50">
+        <v>17</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="D21" s="53">
         <v>540</v>
       </c>
-      <c r="E20" s="75">
-        <v>2000</v>
-      </c>
-      <c r="F20" s="30"/>
-    </row>
-    <row r="21" spans="1:6" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A21" s="106" t="s">
+      <c r="E21" s="75">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A22" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="73">
-        <f>SUM(E5:E20)</f>
-        <v>190927</v>
-      </c>
-      <c r="F21" s="78"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="73">
+        <f>SUM(E5:E21)</f>
+        <v>229597</v>
+      </c>
+      <c r="F22" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="38" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -5512,10 +5964,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A9" sqref="A8:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5530,7 +5982,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="402" customHeight="1" x14ac:dyDescent="1.35">
       <c r="A1" s="109" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -5570,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="C5" s="65" t="s">
         <v>10</v>
@@ -5579,7 +6031,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="75">
-        <v>75487</v>
+        <v>154688</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>115</v>
@@ -5590,268 +6042,296 @@
         <v>2</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="C6" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="53" t="s">
-        <v>349</v>
+      <c r="D6" s="51" t="s">
+        <v>392</v>
       </c>
       <c r="E6" s="75">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50">
         <v>3</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="53">
-        <v>58</v>
+        <v>11</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>394</v>
       </c>
       <c r="E7" s="75">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50">
         <v>4</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="53">
-        <v>59</v>
-      </c>
-      <c r="E8" s="75" t="s">
-        <v>324</v>
+        <v>285</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>396</v>
+      </c>
+      <c r="E8" s="75">
+        <v>20000</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="50">
         <v>5</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="47" t="s">
+        <v>397</v>
+      </c>
       <c r="C9" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="F9" s="30"/>
+        <v>207</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="E9" s="75">
+        <v>6000</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50">
         <v>6</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>354</v>
-      </c>
+      <c r="B10" s="47"/>
       <c r="C10" s="65" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" s="53">
-        <v>532</v>
-      </c>
-      <c r="E10" s="75">
-        <v>20000</v>
-      </c>
-      <c r="F10" s="30"/>
-    </row>
-    <row r="11" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50">
         <v>7</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>354</v>
-      </c>
+      <c r="B11" s="47"/>
       <c r="C11" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="53">
-        <v>534</v>
-      </c>
-      <c r="E11" s="75">
-        <v>10550</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="75"/>
       <c r="F11" s="30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="50">
         <v>8</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="53"/>
+        <v>171</v>
+      </c>
+      <c r="D12" s="53">
+        <v>541</v>
+      </c>
       <c r="E12" s="75">
-        <v>8660</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10550</v>
+      </c>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50">
         <v>9</v>
       </c>
-      <c r="B13" s="47" t="s">
-        <v>356</v>
+      <c r="B13" s="47">
+        <v>44147</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="53"/>
+        <v>171</v>
+      </c>
+      <c r="D13" s="53">
+        <v>542</v>
+      </c>
       <c r="E13" s="75">
-        <v>8080</v>
+        <v>8660</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50">
         <v>10</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="53"/>
+        <v>400</v>
+      </c>
+      <c r="D14" s="53">
+        <v>543</v>
+      </c>
       <c r="E14" s="75">
-        <v>13000</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="50">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>362</v>
-      </c>
-      <c r="D15" s="53"/>
+        <v>402</v>
+      </c>
+      <c r="D15" s="53">
+        <v>544</v>
+      </c>
       <c r="E15" s="75">
-        <v>1000</v>
-      </c>
-      <c r="F15" s="30"/>
+        <v>15000</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>363</v>
-      </c>
-      <c r="D16" s="53"/>
+        <v>172</v>
+      </c>
+      <c r="D16" s="53">
+        <v>545</v>
+      </c>
       <c r="E16" s="75">
-        <v>1000</v>
-      </c>
-      <c r="F16" s="30"/>
+        <v>8080</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="53"/>
+        <v>403</v>
+      </c>
+      <c r="D17" s="53">
+        <v>546</v>
+      </c>
       <c r="E17" s="75">
-        <v>6500</v>
+        <v>15600</v>
       </c>
       <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50">
+        <v>14</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>404</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>405</v>
+      </c>
+      <c r="D18" s="53">
+        <v>547</v>
+      </c>
+      <c r="E18" s="75">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="50">
         <v>15</v>
       </c>
-      <c r="B18" s="47" t="s">
-        <v>360</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>343</v>
-      </c>
-      <c r="D18" s="53">
-        <v>533</v>
-      </c>
-      <c r="E18" s="75">
-        <v>2000</v>
-      </c>
-      <c r="F18" s="30"/>
-    </row>
-    <row r="19" spans="1:6" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="50">
+      <c r="B19" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>406</v>
+      </c>
+      <c r="D19" s="53">
+        <v>548</v>
+      </c>
+      <c r="E19" s="75">
+        <v>13000</v>
+      </c>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="1:6" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="50">
         <v>16</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>361</v>
-      </c>
-      <c r="C19" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="D19" s="53">
-        <v>540</v>
-      </c>
-      <c r="E19" s="75">
-        <v>2000</v>
-      </c>
-      <c r="F19" s="30"/>
-    </row>
-    <row r="20" spans="1:6" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A20" s="106" t="s">
+      <c r="B20" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>407</v>
+      </c>
+      <c r="D20" s="53">
+        <v>549</v>
+      </c>
+      <c r="E20" s="75">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:6" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A21" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="73">
-        <f>SUM(E5:E19)</f>
-        <v>204277</v>
-      </c>
-      <c r="F20" s="78"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="73">
+        <f>SUM(E5:E20)</f>
+        <v>304578</v>
+      </c>
+      <c r="F21" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="38" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6159,6 +6639,798 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="35.5546875" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="402" customHeight="1" x14ac:dyDescent="1.35">
+      <c r="A1" s="109" t="s">
+        <v>408</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50">
+        <v>1</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="75">
+        <v>243808</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50">
+        <v>2</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>412</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>413</v>
+      </c>
+      <c r="E6" s="75">
+        <v>20000</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50">
+        <v>3</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="E7" s="75">
+        <v>8000</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50">
+        <v>4</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>417</v>
+      </c>
+      <c r="E8" s="75">
+        <v>25000</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50">
+        <v>5</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="E9" s="75">
+        <v>6000</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50">
+        <v>6</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50">
+        <v>7</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50">
+        <v>8</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>409</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>420</v>
+      </c>
+      <c r="D12" s="53">
+        <v>550</v>
+      </c>
+      <c r="E12" s="75">
+        <v>9100</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50">
+        <v>9</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>420</v>
+      </c>
+      <c r="D13" s="53">
+        <v>551</v>
+      </c>
+      <c r="E13" s="75">
+        <v>9150</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50">
+        <v>10</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>422</v>
+      </c>
+      <c r="D14" s="53">
+        <v>552</v>
+      </c>
+      <c r="E14" s="75">
+        <v>9450</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50">
+        <v>11</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>423</v>
+      </c>
+      <c r="D15" s="53">
+        <v>553</v>
+      </c>
+      <c r="E15" s="75">
+        <v>2000</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50">
+        <v>12</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>410</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="D16" s="53">
+        <v>554</v>
+      </c>
+      <c r="E16" s="75">
+        <v>8420</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="50">
+        <v>13</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="D17" s="53">
+        <v>555</v>
+      </c>
+      <c r="E17" s="75">
+        <v>9350</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="50">
+        <v>14</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>426</v>
+      </c>
+      <c r="D18" s="53">
+        <v>556</v>
+      </c>
+      <c r="E18" s="75">
+        <v>500</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="50">
+        <v>15</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>427</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>428</v>
+      </c>
+      <c r="D19" s="53">
+        <v>557</v>
+      </c>
+      <c r="E19" s="75">
+        <v>10020</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="50">
+        <v>16</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>429</v>
+      </c>
+      <c r="D20" s="53">
+        <v>558</v>
+      </c>
+      <c r="E20" s="75">
+        <v>10800</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="50">
+        <v>17</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>430</v>
+      </c>
+      <c r="D21" s="53">
+        <v>559</v>
+      </c>
+      <c r="E21" s="75">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A22" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="107"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="73">
+        <f>SUM(E5:E21)</f>
+        <v>372598</v>
+      </c>
+      <c r="F22" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A22:C22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="38" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="35.5546875" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="402" customHeight="1" x14ac:dyDescent="1.35">
+      <c r="A1" s="109" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50">
+        <v>1</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="75">
+        <v>247025</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50">
+        <v>2</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>433</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>435</v>
+      </c>
+      <c r="E6" s="75">
+        <v>20000</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50">
+        <v>3</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>433</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>436</v>
+      </c>
+      <c r="E7" s="75">
+        <v>6000</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50">
+        <v>4</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>438</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" s="75">
+        <v>25000</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50">
+        <v>6</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50">
+        <v>7</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50">
+        <v>8</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>439</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>446</v>
+      </c>
+      <c r="D11" s="53">
+        <v>560</v>
+      </c>
+      <c r="E11" s="75">
+        <v>17450</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50">
+        <v>9</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>446</v>
+      </c>
+      <c r="D12" s="53">
+        <v>561</v>
+      </c>
+      <c r="E12" s="75">
+        <v>8360</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50">
+        <v>10</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>447</v>
+      </c>
+      <c r="D13" s="53">
+        <v>562</v>
+      </c>
+      <c r="E13" s="75">
+        <v>330</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50">
+        <v>11</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>434</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>448</v>
+      </c>
+      <c r="D14" s="53">
+        <v>563</v>
+      </c>
+      <c r="E14" s="75">
+        <v>7480</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50">
+        <v>12</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>441</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" s="53">
+        <v>564</v>
+      </c>
+      <c r="E15" s="75">
+        <v>2430</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50">
+        <v>13</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>449</v>
+      </c>
+      <c r="D16" s="53">
+        <v>565</v>
+      </c>
+      <c r="E16" s="75">
+        <v>10510</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="50">
+        <v>14</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="D17" s="53">
+        <v>566</v>
+      </c>
+      <c r="E17" s="75">
+        <v>2740</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="50">
+        <v>15</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="D18" s="53">
+        <v>567</v>
+      </c>
+      <c r="E18" s="75">
+        <v>4240</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="50">
+        <v>16</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>444</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="53">
+        <v>568</v>
+      </c>
+      <c r="E19" s="75">
+        <v>10920</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="50">
+        <v>17</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="D20" s="53">
+        <v>569</v>
+      </c>
+      <c r="E20" s="75">
+        <v>1810</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A21" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="73">
+        <f>SUM(E5:E20)</f>
+        <v>364295</v>
+      </c>
+      <c r="F21" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A21:C21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="38" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8046,7 +9318,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="409.05" customHeight="1" x14ac:dyDescent="1.35">
       <c r="A1" s="109" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
